--- a/Code/Results/Cases/Case_3_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.73125421452062</v>
+        <v>17.2042400402971</v>
       </c>
       <c r="C2">
-        <v>15.18607181969016</v>
+        <v>10.76154531977254</v>
       </c>
       <c r="D2">
-        <v>3.549475694474079</v>
+        <v>4.794905354512239</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.56059180082178</v>
+        <v>25.92069599919177</v>
       </c>
       <c r="G2">
-        <v>31.21219587461054</v>
+        <v>31.9694579864587</v>
       </c>
       <c r="H2">
-        <v>9.871931651898651</v>
+        <v>14.76500625785558</v>
       </c>
       <c r="I2">
-        <v>14.5905829605156</v>
+        <v>22.48305991620906</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.105995777685465</v>
+        <v>10.68012773888499</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.04682647192481</v>
+        <v>16.5505715605408</v>
       </c>
       <c r="C3">
-        <v>14.37527377555125</v>
+        <v>10.38812948220805</v>
       </c>
       <c r="D3">
-        <v>3.553802492189907</v>
+        <v>4.796473984247393</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.68879999072062</v>
+        <v>25.8765808220838</v>
       </c>
       <c r="G3">
-        <v>29.79193555262885</v>
+        <v>31.83880975046162</v>
       </c>
       <c r="H3">
-        <v>9.775434467478014</v>
+        <v>14.81381235575958</v>
       </c>
       <c r="I3">
-        <v>14.65567754206175</v>
+        <v>22.61094462936199</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.81062265856036</v>
+        <v>10.65435446621486</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.95354838442417</v>
+        <v>16.13791824122116</v>
       </c>
       <c r="C4">
-        <v>13.85483732381767</v>
+        <v>10.15018367922485</v>
       </c>
       <c r="D4">
-        <v>3.557305509593415</v>
+        <v>4.797787154373998</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.16974492673868</v>
+        <v>25.86002218862061</v>
       </c>
       <c r="G4">
-        <v>28.94182917027133</v>
+        <v>31.77475749132969</v>
       </c>
       <c r="H4">
-        <v>9.728452378526939</v>
+        <v>14.84783800416863</v>
       </c>
       <c r="I4">
-        <v>14.72011152409718</v>
+        <v>22.6964944424178</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.629430655303904</v>
+        <v>10.64077390943622</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.49305456839056</v>
+        <v>15.96716950342466</v>
       </c>
       <c r="C5">
-        <v>13.6371597448273</v>
+        <v>10.05113272247192</v>
       </c>
       <c r="D5">
-        <v>3.558938803012269</v>
+        <v>4.798410698506605</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.96253059126373</v>
+        <v>25.85591990297197</v>
       </c>
       <c r="G5">
-        <v>28.60135993846964</v>
+        <v>31.75273158593248</v>
       </c>
       <c r="H5">
-        <v>9.712267939159046</v>
+        <v>14.86271966201906</v>
       </c>
       <c r="I5">
-        <v>14.75212208621737</v>
+        <v>22.73311473546034</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.5557262260636</v>
+        <v>10.63580763775287</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.41568180313684</v>
+        <v>15.93866831745522</v>
       </c>
       <c r="C6">
-        <v>13.60067972978683</v>
+        <v>10.03456231899975</v>
       </c>
       <c r="D6">
-        <v>3.559222249881347</v>
+        <v>4.798519589402141</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.92838942591329</v>
+        <v>25.85539837689981</v>
       </c>
       <c r="G6">
-        <v>28.54519835767488</v>
+        <v>31.74932052584073</v>
       </c>
       <c r="H6">
-        <v>9.709755635142733</v>
+        <v>14.86525197136448</v>
       </c>
       <c r="I6">
-        <v>14.75777342092293</v>
+        <v>22.73930142018326</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.543498491204223</v>
+        <v>10.63501738637491</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.94739880260069</v>
+        <v>16.13562559480692</v>
       </c>
       <c r="C7">
-        <v>13.85192416663566</v>
+        <v>10.14885615912752</v>
       </c>
       <c r="D7">
-        <v>3.557326712203566</v>
+        <v>4.79779520520331</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.16693263233795</v>
+        <v>25.85995615754067</v>
       </c>
       <c r="G7">
-        <v>28.93721276653991</v>
+        <v>31.77444393119771</v>
       </c>
       <c r="H7">
-        <v>9.728222287903016</v>
+        <v>14.84803459622916</v>
       </c>
       <c r="I7">
-        <v>14.72052045531226</v>
+        <v>22.69698121046391</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.628435988088345</v>
+        <v>10.6407046287864</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.16263610881265</v>
+        <v>16.98134292768366</v>
       </c>
       <c r="C8">
-        <v>14.91124433878357</v>
+        <v>10.63464317073607</v>
       </c>
       <c r="D8">
-        <v>3.550787399945309</v>
+        <v>4.795373808911795</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.25676151212095</v>
+        <v>25.90329986272962</v>
       </c>
       <c r="G8">
-        <v>30.71818946890958</v>
+        <v>31.92106419440368</v>
       </c>
       <c r="H8">
-        <v>9.836040913927523</v>
+        <v>14.78098953345207</v>
       </c>
       <c r="I8">
-        <v>14.60770715067812</v>
+        <v>22.52569033781681</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.004167634991417</v>
+        <v>10.67077759356301</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.04441680935216</v>
+        <v>18.54041936997608</v>
       </c>
       <c r="C9">
-        <v>16.8067231141106</v>
+        <v>11.51491300198477</v>
       </c>
       <c r="D9">
-        <v>3.545047099102835</v>
+        <v>4.793385703741165</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.51361125018464</v>
+        <v>26.07175208380803</v>
       </c>
       <c r="G9">
-        <v>34.36779609454054</v>
+        <v>32.33597490846429</v>
       </c>
       <c r="H9">
-        <v>10.14999495293024</v>
+        <v>14.68191586532678</v>
       </c>
       <c r="I9">
-        <v>14.59876668518858</v>
+        <v>22.24596712341786</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.738854734798274</v>
+        <v>10.74737941081023</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.62341965054254</v>
+        <v>19.61403132591442</v>
       </c>
       <c r="C10">
-        <v>18.08685113764592</v>
+        <v>12.11339225831947</v>
       </c>
       <c r="D10">
-        <v>3.545745129945924</v>
+        <v>4.793585630430098</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.23460429598052</v>
+        <v>26.24603879760985</v>
       </c>
       <c r="G10">
-        <v>37.12704007639657</v>
+        <v>32.71670806317371</v>
       </c>
       <c r="H10">
-        <v>10.4497802013055</v>
+        <v>14.62914032585731</v>
       </c>
       <c r="I10">
-        <v>14.74656165899016</v>
+        <v>22.07526812655732</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.273549798995914</v>
+        <v>10.81413371437584</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.7394800954361</v>
+        <v>20.0849282221725</v>
       </c>
       <c r="C11">
-        <v>18.64487383302758</v>
+        <v>12.37447253764065</v>
       </c>
       <c r="D11">
-        <v>3.547289912879684</v>
+        <v>4.794032519282863</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.02982433207997</v>
+        <v>26.33614590986724</v>
       </c>
       <c r="G11">
-        <v>38.39704301880886</v>
+        <v>32.90585224413311</v>
       </c>
       <c r="H11">
-        <v>10.60247162033288</v>
+        <v>14.60952882461049</v>
       </c>
       <c r="I11">
-        <v>14.85258920296205</v>
+        <v>22.00529411051222</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.515148709257948</v>
+        <v>10.84670801024137</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.15406791573174</v>
+        <v>20.26059653847699</v>
       </c>
       <c r="C12">
-        <v>18.85271573100918</v>
+        <v>12.47168147938005</v>
       </c>
       <c r="D12">
-        <v>3.548067098904771</v>
+        <v>4.794252529651604</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.33267530112592</v>
+        <v>26.37180516257298</v>
       </c>
       <c r="G12">
-        <v>38.88002934214459</v>
+        <v>32.97971300238474</v>
       </c>
       <c r="H12">
-        <v>10.66273953431924</v>
+        <v>14.60273851453258</v>
       </c>
       <c r="I12">
-        <v>14.89873788198086</v>
+        <v>21.97991096974274</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.606372589334452</v>
+        <v>10.85935388845937</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.06513364892605</v>
+        <v>20.22288303516772</v>
       </c>
       <c r="C13">
-        <v>18.80810693922203</v>
+        <v>12.45082019458812</v>
       </c>
       <c r="D13">
-        <v>3.54789089487246</v>
+        <v>4.794202894249958</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.26737478899194</v>
+        <v>26.3640572520426</v>
       </c>
       <c r="G13">
-        <v>38.77591779236997</v>
+        <v>32.96370730190132</v>
       </c>
       <c r="H13">
-        <v>10.64964934262791</v>
+        <v>14.60417257665409</v>
       </c>
       <c r="I13">
-        <v>14.8885256276477</v>
+        <v>21.98532794944512</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.586737967862808</v>
+        <v>10.85661666587056</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.77374856383959</v>
+        <v>20.09943437769376</v>
       </c>
       <c r="C14">
-        <v>18.66204242275804</v>
+        <v>12.38250343767251</v>
       </c>
       <c r="D14">
-        <v>3.547349902181332</v>
+        <v>4.794049604189192</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.05470574410288</v>
+        <v>26.33904892085985</v>
       </c>
       <c r="G14">
-        <v>38.43673725559196</v>
+        <v>32.91188435212143</v>
       </c>
       <c r="H14">
-        <v>10.6073802855344</v>
+        <v>14.60895741081926</v>
       </c>
       <c r="I14">
-        <v>14.85626331258093</v>
+        <v>22.00318342824478</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.522659168523136</v>
+        <v>10.84774220753759</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.59422518573804</v>
+        <v>20.02346971006827</v>
       </c>
       <c r="C15">
-        <v>18.57212299467939</v>
+        <v>12.34044035424786</v>
       </c>
       <c r="D15">
-        <v>3.547044064887887</v>
+        <v>4.793962311200232</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.92466290070649</v>
+        <v>26.32393022801732</v>
       </c>
       <c r="G15">
-        <v>38.22924789167902</v>
+        <v>32.88043067726446</v>
       </c>
       <c r="H15">
-        <v>10.5818108964983</v>
+        <v>14.61197121691414</v>
       </c>
       <c r="I15">
-        <v>14.83729509383059</v>
+        <v>22.01426587506848</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.483373997208941</v>
+        <v>10.84234660029165</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.54934749351824</v>
+        <v>19.58289315671128</v>
       </c>
       <c r="C16">
-        <v>18.04989571187653</v>
+        <v>12.09610081975826</v>
       </c>
       <c r="D16">
-        <v>3.545670165377115</v>
+        <v>4.793563553372341</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.18287702448449</v>
+        <v>26.24036635584973</v>
       </c>
       <c r="G16">
-        <v>37.04433252533874</v>
+        <v>32.70466320304239</v>
       </c>
       <c r="H16">
-        <v>10.44013844467406</v>
+        <v>14.63051079289942</v>
       </c>
       <c r="I16">
-        <v>14.74044934628822</v>
+        <v>22.07999648299284</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.257725012804789</v>
+        <v>10.812048762287</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.8938357969883</v>
+        <v>19.3080313420214</v>
       </c>
       <c r="C17">
-        <v>17.72331265842792</v>
+        <v>11.94330743494571</v>
       </c>
       <c r="D17">
-        <v>3.545152166557691</v>
+        <v>4.793409808123632</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.73091798685175</v>
+        <v>26.1918625017568</v>
       </c>
       <c r="G17">
-        <v>36.32114051069442</v>
+        <v>32.6008813872437</v>
       </c>
       <c r="H17">
-        <v>10.35747849721653</v>
+        <v>14.6430131245315</v>
       </c>
       <c r="I17">
-        <v>14.69127669200054</v>
+        <v>22.122293984976</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.118852489964608</v>
+        <v>10.79402275836244</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.51141319343384</v>
+        <v>19.14829821388992</v>
       </c>
       <c r="C18">
-        <v>17.53317944686697</v>
+        <v>11.8543757993085</v>
       </c>
       <c r="D18">
-        <v>3.544968675935979</v>
+        <v>4.793354904718239</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.47212392563053</v>
+        <v>26.1649844462503</v>
       </c>
       <c r="G18">
-        <v>35.90657144241513</v>
+        <v>32.54269368747559</v>
       </c>
       <c r="H18">
-        <v>10.31146476437043</v>
+        <v>14.65061772050298</v>
       </c>
       <c r="I18">
-        <v>14.66662106604656</v>
+        <v>22.1473444375955</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.038823530764876</v>
+        <v>10.7838628842278</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.38100060565547</v>
+        <v>19.09393807124466</v>
       </c>
       <c r="C19">
-        <v>17.46840953280075</v>
+        <v>11.82408656176488</v>
       </c>
       <c r="D19">
-        <v>3.544925761622128</v>
+        <v>4.793342085837509</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.38470262069894</v>
+        <v>26.15605971105693</v>
       </c>
       <c r="G19">
-        <v>35.76644813851674</v>
+        <v>32.5232524231465</v>
       </c>
       <c r="H19">
-        <v>10.29614500275336</v>
+        <v>14.65326341520763</v>
       </c>
       <c r="I19">
-        <v>14.65888306054983</v>
+        <v>22.15594978454957</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.011701905315221</v>
+        <v>10.78045888237112</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.96417269798878</v>
+        <v>19.33746160529537</v>
       </c>
       <c r="C20">
-        <v>17.75831497800022</v>
+        <v>11.95968149554814</v>
       </c>
       <c r="D20">
-        <v>3.545195356396435</v>
+        <v>4.793422707609629</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.77891022611206</v>
+        <v>26.19692037037465</v>
       </c>
       <c r="G20">
-        <v>36.39798227393004</v>
+        <v>32.61177378490773</v>
       </c>
       <c r="H20">
-        <v>10.36611869831848</v>
+        <v>14.64163939617552</v>
       </c>
       <c r="I20">
-        <v>14.69613272156129</v>
+        <v>22.11771653899738</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.133651812489752</v>
+        <v>10.79592015593305</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.85955216224049</v>
+        <v>20.1357671450899</v>
       </c>
       <c r="C21">
-        <v>18.70503896391183</v>
+        <v>12.40261504821184</v>
       </c>
       <c r="D21">
-        <v>3.547503451826559</v>
+        <v>4.794093254140639</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.11712532697606</v>
+        <v>26.34635290900433</v>
       </c>
       <c r="G21">
-        <v>38.53630682087299</v>
+        <v>32.92704581369543</v>
       </c>
       <c r="H21">
-        <v>10.61972852713873</v>
+        <v>14.60753469418422</v>
       </c>
       <c r="I21">
-        <v>14.86557346786671</v>
+        <v>21.99790851093186</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.541488003253649</v>
+        <v>10.85034047466494</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.05151973747811</v>
+        <v>20.6420091938362</v>
       </c>
       <c r="C22">
-        <v>19.30358130724147</v>
+        <v>12.68242376311279</v>
       </c>
       <c r="D22">
-        <v>3.550141237771504</v>
+        <v>4.794827313409378</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.00175687609914</v>
+        <v>26.45296719320691</v>
       </c>
       <c r="G22">
-        <v>39.9458961734899</v>
+        <v>33.14609615276971</v>
       </c>
       <c r="H22">
-        <v>10.79978639301951</v>
+        <v>14.58895485780667</v>
       </c>
       <c r="I22">
-        <v>15.01146000389367</v>
+        <v>21.92610803207482</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.806487937209088</v>
+        <v>10.88771485329779</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.41956224527873</v>
+        <v>20.37327601527442</v>
       </c>
       <c r="C23">
-        <v>18.98596261757239</v>
+        <v>12.53398461099991</v>
       </c>
       <c r="D23">
-        <v>3.548624273999178</v>
+        <v>4.794408596970393</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.52869827052233</v>
+        <v>26.39525315171446</v>
       </c>
       <c r="G23">
-        <v>39.19246296547653</v>
+        <v>33.02801576014595</v>
       </c>
       <c r="H23">
-        <v>10.70234383240943</v>
+        <v>14.59853060366732</v>
       </c>
       <c r="I23">
-        <v>14.93024672203508</v>
+        <v>21.9638310124655</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.665199800907409</v>
+        <v>10.86760439235915</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.93239071703353</v>
+        <v>19.32416150353886</v>
       </c>
       <c r="C24">
-        <v>17.7424978326985</v>
+        <v>11.95228216993375</v>
       </c>
       <c r="D24">
-        <v>3.545175475370877</v>
+        <v>4.793416771400801</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.75720968048624</v>
+        <v>26.19463056847851</v>
       </c>
       <c r="G24">
-        <v>36.36323835737585</v>
+        <v>32.60684472435317</v>
       </c>
       <c r="H24">
-        <v>10.36220777214656</v>
+        <v>14.6422591606418</v>
       </c>
       <c r="I24">
-        <v>14.69392608457904</v>
+        <v>22.11978371970365</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.126961626012752</v>
+        <v>10.79506170807317</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.04289330765565</v>
+        <v>18.13054162142456</v>
       </c>
       <c r="C25">
-        <v>16.3136628003214</v>
+        <v>11.28498500046825</v>
       </c>
       <c r="D25">
-        <v>3.545785190493338</v>
+        <v>4.793630324220357</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.89142189386242</v>
+        <v>26.01726866133058</v>
       </c>
       <c r="G25">
-        <v>33.36578017141166</v>
+        <v>32.21024272093796</v>
       </c>
       <c r="H25">
-        <v>10.05337847648328</v>
+        <v>14.70522134060632</v>
       </c>
       <c r="I25">
-        <v>14.57588166045465</v>
+        <v>22.31556708823188</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.5407659165773</v>
+        <v>10.72479532689341</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.2042400402971</v>
+        <v>24.73125421452064</v>
       </c>
       <c r="C2">
-        <v>10.76154531977254</v>
+        <v>15.18607181968999</v>
       </c>
       <c r="D2">
-        <v>4.794905354512239</v>
+        <v>3.549475694474254</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.92069599919177</v>
+        <v>22.56059180082174</v>
       </c>
       <c r="G2">
-        <v>31.9694579864587</v>
+        <v>31.21219587461054</v>
       </c>
       <c r="H2">
-        <v>14.76500625785558</v>
+        <v>9.871931651898663</v>
       </c>
       <c r="I2">
-        <v>22.48305991620906</v>
+        <v>14.59058296051555</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.68012773888499</v>
+        <v>8.105995777685486</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.5505715605408</v>
+        <v>23.04682647192488</v>
       </c>
       <c r="C3">
-        <v>10.38812948220805</v>
+        <v>14.37527377555122</v>
       </c>
       <c r="D3">
-        <v>4.796473984247393</v>
+        <v>3.553802492189921</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.8765808220838</v>
+        <v>21.68879999072043</v>
       </c>
       <c r="G3">
-        <v>31.83880975046162</v>
+        <v>29.7919355526287</v>
       </c>
       <c r="H3">
-        <v>14.81381235575958</v>
+        <v>9.775434467477934</v>
       </c>
       <c r="I3">
-        <v>22.61094462936199</v>
+        <v>14.6556775420615</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.65435446621486</v>
+        <v>7.810622658560404</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.13791824122116</v>
+        <v>21.95354838442407</v>
       </c>
       <c r="C4">
-        <v>10.15018367922485</v>
+        <v>13.85483732381801</v>
       </c>
       <c r="D4">
-        <v>4.797787154373998</v>
+        <v>3.557305509593593</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.86002218862061</v>
+        <v>21.16974492673873</v>
       </c>
       <c r="G4">
-        <v>31.77475749132969</v>
+        <v>28.94182917027151</v>
       </c>
       <c r="H4">
-        <v>14.84783800416863</v>
+        <v>9.728452378526974</v>
       </c>
       <c r="I4">
-        <v>22.6964944424178</v>
+        <v>14.72011152409741</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.64077390943622</v>
+        <v>7.629430655303869</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.96716950342466</v>
+        <v>21.49305456839057</v>
       </c>
       <c r="C5">
-        <v>10.05113272247192</v>
+        <v>13.63715974482734</v>
       </c>
       <c r="D5">
-        <v>4.798410698506605</v>
+        <v>3.558938803012132</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.85591990297197</v>
+        <v>20.96253059126374</v>
       </c>
       <c r="G5">
-        <v>31.75273158593248</v>
+        <v>28.60135993846955</v>
       </c>
       <c r="H5">
-        <v>14.86271966201906</v>
+        <v>9.712267939159055</v>
       </c>
       <c r="I5">
-        <v>22.73311473546034</v>
+        <v>14.75212208621733</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.63580763775287</v>
+        <v>7.555726226063614</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.93866831745522</v>
+        <v>21.41568180313681</v>
       </c>
       <c r="C6">
-        <v>10.03456231899975</v>
+        <v>13.60067972978671</v>
       </c>
       <c r="D6">
-        <v>4.798519589402141</v>
+        <v>3.559222249881473</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.85539837689981</v>
+        <v>20.92838942591342</v>
       </c>
       <c r="G6">
-        <v>31.74932052584073</v>
+        <v>28.545198357675</v>
       </c>
       <c r="H6">
-        <v>14.86525197136448</v>
+        <v>9.709755635142821</v>
       </c>
       <c r="I6">
-        <v>22.73930142018326</v>
+        <v>14.75777342092308</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.63501738637491</v>
+        <v>7.54349849120423</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.13562559480692</v>
+        <v>21.94739880260068</v>
       </c>
       <c r="C7">
-        <v>10.14885615912752</v>
+        <v>13.85192416663566</v>
       </c>
       <c r="D7">
-        <v>4.79779520520331</v>
+        <v>3.557326712203451</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.85995615754067</v>
+        <v>21.16693263233794</v>
       </c>
       <c r="G7">
-        <v>31.77444393119771</v>
+        <v>28.93721276653982</v>
       </c>
       <c r="H7">
-        <v>14.84803459622916</v>
+        <v>9.728222287903009</v>
       </c>
       <c r="I7">
-        <v>22.69698121046391</v>
+        <v>14.72052045531219</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.6407046287864</v>
+        <v>7.62843598808837</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.98134292768366</v>
+        <v>24.1626361088126</v>
       </c>
       <c r="C8">
-        <v>10.63464317073607</v>
+        <v>14.91124433878356</v>
       </c>
       <c r="D8">
-        <v>4.795373808911795</v>
+        <v>3.550787399945317</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.90329986272962</v>
+        <v>22.25676151212109</v>
       </c>
       <c r="G8">
-        <v>31.92106419440368</v>
+        <v>30.7181894689097</v>
       </c>
       <c r="H8">
-        <v>14.78098953345207</v>
+        <v>9.836040913927627</v>
       </c>
       <c r="I8">
-        <v>22.52569033781681</v>
+        <v>14.60770715067824</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.67077759356301</v>
+        <v>8.004167634991457</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.54041936997608</v>
+        <v>28.04441680935225</v>
       </c>
       <c r="C9">
-        <v>11.51491300198477</v>
+        <v>16.80672311411059</v>
       </c>
       <c r="D9">
-        <v>4.793385703741165</v>
+        <v>3.545047099102764</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.07175208380803</v>
+        <v>24.51361125018467</v>
       </c>
       <c r="G9">
-        <v>32.33597490846429</v>
+        <v>34.36779609454064</v>
       </c>
       <c r="H9">
-        <v>14.68191586532678</v>
+        <v>10.14999495293023</v>
       </c>
       <c r="I9">
-        <v>22.24596712341786</v>
+        <v>14.5987666851886</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.74737941081023</v>
+        <v>8.738854734798251</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.61403132591442</v>
+        <v>30.62341965054257</v>
       </c>
       <c r="C10">
-        <v>12.11339225831947</v>
+        <v>18.08685113764592</v>
       </c>
       <c r="D10">
-        <v>4.793585630430098</v>
+        <v>3.545745129945869</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.24603879760985</v>
+        <v>26.23460429598052</v>
       </c>
       <c r="G10">
-        <v>32.71670806317371</v>
+        <v>37.1270400763966</v>
       </c>
       <c r="H10">
-        <v>14.62914032585731</v>
+        <v>10.44978020130547</v>
       </c>
       <c r="I10">
-        <v>22.07526812655732</v>
+        <v>14.74656165899012</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.81413371437584</v>
+        <v>9.273549798995937</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.0849282221725</v>
+        <v>31.73948009543615</v>
       </c>
       <c r="C11">
-        <v>12.37447253764065</v>
+        <v>18.64487383302757</v>
       </c>
       <c r="D11">
-        <v>4.794032519282863</v>
+        <v>3.547289912879576</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.33614590986724</v>
+        <v>27.02982433208003</v>
       </c>
       <c r="G11">
-        <v>32.90585224413311</v>
+        <v>38.39704301880899</v>
       </c>
       <c r="H11">
-        <v>14.60952882461049</v>
+        <v>10.60247162033289</v>
       </c>
       <c r="I11">
-        <v>22.00529411051222</v>
+        <v>14.85258920296205</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.84670801024137</v>
+        <v>9.515148709257947</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.26059653847699</v>
+        <v>32.15406791573179</v>
       </c>
       <c r="C12">
-        <v>12.47168147938005</v>
+        <v>18.85271573100927</v>
       </c>
       <c r="D12">
-        <v>4.794252529651604</v>
+        <v>3.548067098904928</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.37180516257298</v>
+        <v>27.33267530112599</v>
       </c>
       <c r="G12">
-        <v>32.97971300238474</v>
+        <v>38.88002934214476</v>
       </c>
       <c r="H12">
-        <v>14.60273851453258</v>
+        <v>10.66273953431923</v>
       </c>
       <c r="I12">
-        <v>21.97991096974274</v>
+        <v>14.89873788198086</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.85935388845937</v>
+        <v>9.606372589334468</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.22288303516772</v>
+        <v>32.06513364892609</v>
       </c>
       <c r="C13">
-        <v>12.45082019458812</v>
+        <v>18.808106939222</v>
       </c>
       <c r="D13">
-        <v>4.794202894249958</v>
+        <v>3.547890894872519</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.3640572520426</v>
+        <v>27.26737478899201</v>
       </c>
       <c r="G13">
-        <v>32.96370730190132</v>
+        <v>38.77591779237012</v>
       </c>
       <c r="H13">
-        <v>14.60417257665409</v>
+        <v>10.64964934262794</v>
       </c>
       <c r="I13">
-        <v>21.98532794944512</v>
+        <v>14.88852562764772</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.85661666587056</v>
+        <v>9.586737967862806</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.09943437769376</v>
+        <v>31.77374856383961</v>
       </c>
       <c r="C14">
-        <v>12.38250343767251</v>
+        <v>18.66204242275834</v>
       </c>
       <c r="D14">
-        <v>4.794049604189192</v>
+        <v>3.547349902181095</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.33904892085985</v>
+        <v>27.0547057441029</v>
       </c>
       <c r="G14">
-        <v>32.91188435212143</v>
+        <v>38.43673725559203</v>
       </c>
       <c r="H14">
-        <v>14.60895741081926</v>
+        <v>10.60738028553442</v>
       </c>
       <c r="I14">
-        <v>22.00318342824478</v>
+        <v>14.85626331258099</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.84774220753759</v>
+        <v>9.522659168523113</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.02346971006827</v>
+        <v>31.59422518573799</v>
       </c>
       <c r="C15">
-        <v>12.34044035424786</v>
+        <v>18.57212299467949</v>
       </c>
       <c r="D15">
-        <v>4.793962311200232</v>
+        <v>3.547044064887829</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.32393022801732</v>
+        <v>26.92466290070653</v>
       </c>
       <c r="G15">
-        <v>32.88043067726446</v>
+        <v>38.22924789167901</v>
       </c>
       <c r="H15">
-        <v>14.61197121691414</v>
+        <v>10.58181089649836</v>
       </c>
       <c r="I15">
-        <v>22.01426587506848</v>
+        <v>14.8372950938307</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.84234660029165</v>
+        <v>9.483373997208941</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.58289315671128</v>
+        <v>30.54934749351816</v>
       </c>
       <c r="C16">
-        <v>12.09610081975826</v>
+        <v>18.04989571187648</v>
       </c>
       <c r="D16">
-        <v>4.793563553372341</v>
+        <v>3.545670165377165</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.24036635584973</v>
+        <v>26.1828770244846</v>
       </c>
       <c r="G16">
-        <v>32.70466320304239</v>
+        <v>37.04433252533888</v>
       </c>
       <c r="H16">
-        <v>14.63051079289942</v>
+        <v>10.44013844467415</v>
       </c>
       <c r="I16">
-        <v>22.07999648299284</v>
+        <v>14.74044934628844</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.812048762287</v>
+        <v>9.257725012804801</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.3080313420214</v>
+        <v>29.89383579698834</v>
       </c>
       <c r="C17">
-        <v>11.94330743494571</v>
+        <v>17.72331265842799</v>
       </c>
       <c r="D17">
-        <v>4.793409808123632</v>
+        <v>3.545152166557467</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.1918625017568</v>
+        <v>25.73091798685174</v>
       </c>
       <c r="G17">
-        <v>32.6008813872437</v>
+        <v>36.3211405106944</v>
       </c>
       <c r="H17">
-        <v>14.6430131245315</v>
+        <v>10.35747849721649</v>
       </c>
       <c r="I17">
-        <v>22.122293984976</v>
+        <v>14.69127669200047</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.79402275836244</v>
+        <v>9.118852489964619</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.14829821388992</v>
+        <v>29.51141319343385</v>
       </c>
       <c r="C18">
-        <v>11.8543757993085</v>
+        <v>17.53317944686686</v>
       </c>
       <c r="D18">
-        <v>4.793354904718239</v>
+        <v>3.544968675936042</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.1649844462503</v>
+        <v>25.47212392563063</v>
       </c>
       <c r="G18">
-        <v>32.54269368747559</v>
+        <v>35.90657144241528</v>
       </c>
       <c r="H18">
-        <v>14.65061772050298</v>
+        <v>10.31146476437046</v>
       </c>
       <c r="I18">
-        <v>22.1473444375955</v>
+        <v>14.66662106604664</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.7838628842278</v>
+        <v>9.038823530764869</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.09393807124466</v>
+        <v>29.38100060565548</v>
       </c>
       <c r="C19">
-        <v>11.82408656176488</v>
+        <v>17.46840953280087</v>
       </c>
       <c r="D19">
-        <v>4.793342085837509</v>
+        <v>3.544925761622045</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.15605971105693</v>
+        <v>25.38470262069898</v>
       </c>
       <c r="G19">
-        <v>32.5232524231465</v>
+        <v>35.76644813851686</v>
       </c>
       <c r="H19">
-        <v>14.65326341520763</v>
+        <v>10.29614500275335</v>
       </c>
       <c r="I19">
-        <v>22.15594978454957</v>
+        <v>14.65888306054985</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.78045888237112</v>
+        <v>9.011701905315245</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.33746160529537</v>
+        <v>29.9641726979888</v>
       </c>
       <c r="C20">
-        <v>11.95968149554814</v>
+        <v>17.75831497800005</v>
       </c>
       <c r="D20">
-        <v>4.793422707609629</v>
+        <v>3.545195356396541</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.19692037037465</v>
+        <v>25.77891022611211</v>
       </c>
       <c r="G20">
-        <v>32.61177378490773</v>
+        <v>36.39798227393017</v>
       </c>
       <c r="H20">
-        <v>14.64163939617552</v>
+        <v>10.36611869831852</v>
       </c>
       <c r="I20">
-        <v>22.11771653899738</v>
+        <v>14.69613272156128</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.79592015593305</v>
+        <v>9.133651812489733</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.1357671450899</v>
+        <v>31.85955216224045</v>
       </c>
       <c r="C21">
-        <v>12.40261504821184</v>
+        <v>18.7050389639118</v>
       </c>
       <c r="D21">
-        <v>4.794093254140639</v>
+        <v>3.547503451826657</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.34635290900433</v>
+        <v>27.11712532697611</v>
       </c>
       <c r="G21">
-        <v>32.92704581369543</v>
+        <v>38.53630682087309</v>
       </c>
       <c r="H21">
-        <v>14.60753469418422</v>
+        <v>10.61972852713874</v>
       </c>
       <c r="I21">
-        <v>21.99790851093186</v>
+        <v>14.86557346786676</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.85034047466494</v>
+        <v>9.541488003253633</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.6420091938362</v>
+        <v>33.05151973747812</v>
       </c>
       <c r="C22">
-        <v>12.68242376311279</v>
+        <v>19.30358130724145</v>
       </c>
       <c r="D22">
-        <v>4.794827313409378</v>
+        <v>3.550141237771493</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.45296719320691</v>
+        <v>28.00175687609921</v>
       </c>
       <c r="G22">
-        <v>33.14609615276971</v>
+        <v>39.94589617349003</v>
       </c>
       <c r="H22">
-        <v>14.58895485780667</v>
+        <v>10.79978639301954</v>
       </c>
       <c r="I22">
-        <v>21.92610803207482</v>
+        <v>15.0114600038937</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.88771485329779</v>
+        <v>9.806487937209099</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.37327601527442</v>
+        <v>32.41956224527881</v>
       </c>
       <c r="C23">
-        <v>12.53398461099991</v>
+        <v>18.9859626175724</v>
       </c>
       <c r="D23">
-        <v>4.794408596970393</v>
+        <v>3.54862427399913</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.39525315171446</v>
+        <v>27.52869827052236</v>
       </c>
       <c r="G23">
-        <v>33.02801576014595</v>
+        <v>39.19246296547665</v>
       </c>
       <c r="H23">
-        <v>14.59853060366732</v>
+        <v>10.70234383240935</v>
       </c>
       <c r="I23">
-        <v>21.9638310124655</v>
+        <v>14.93024672203495</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.86760439235915</v>
+        <v>9.66519980090745</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.32416150353886</v>
+        <v>29.93239071703368</v>
       </c>
       <c r="C24">
-        <v>11.95228216993375</v>
+        <v>17.74249783269839</v>
       </c>
       <c r="D24">
-        <v>4.793416771400801</v>
+        <v>3.545175475370697</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.19463056847851</v>
+        <v>25.75720968048623</v>
       </c>
       <c r="G24">
-        <v>32.60684472435317</v>
+        <v>36.36323835737591</v>
       </c>
       <c r="H24">
-        <v>14.6422591606418</v>
+        <v>10.36220777214647</v>
       </c>
       <c r="I24">
-        <v>22.11978371970365</v>
+        <v>14.69392608457886</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.79506170807317</v>
+        <v>9.126961626012783</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.13054162142456</v>
+        <v>27.04289330765569</v>
       </c>
       <c r="C25">
-        <v>11.28498500046825</v>
+        <v>16.31366280032138</v>
       </c>
       <c r="D25">
-        <v>4.793630324220357</v>
+        <v>3.545785190493334</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.01726866133058</v>
+        <v>23.8914218938624</v>
       </c>
       <c r="G25">
-        <v>32.21024272093796</v>
+        <v>33.36578017141168</v>
       </c>
       <c r="H25">
-        <v>14.70522134060632</v>
+        <v>10.05337847648327</v>
       </c>
       <c r="I25">
-        <v>22.31556708823188</v>
+        <v>14.57588166045461</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.72479532689341</v>
+        <v>8.540765916577293</v>
       </c>
       <c r="M25">
         <v>0</v>
